--- a/medicine/Enfance/Michel_et_la_Soucoupe_flottante/Michel_et_la_Soucoupe_flottante.xlsx
+++ b/medicine/Enfance/Michel_et_la_Soucoupe_flottante/Michel_et_la_Soucoupe_flottante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Michel et la Soucoupe flottante est le douzième roman de la série Michel par Georges Bayard. Ce roman a été édité pour la première fois dans la Bibliothèque verte en 1963 sous le no 230 de la collection. L'épisode suivant est Michel maître à bord.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Prométhée, la superfusée secrète française, va partir ! Le compte à reboursest commencé.
 Sur une petite île de la côte méditerranéenne, voisine de la base de lancement, Michel et ses inséparables compagnons, Daniel et Martine, sont témoins involontaires d'étranges manœuvres : que viennent faire ces hommes grenouilles qui débarquent d'une bizarre "soucoupe flottante" ?  Des amis ? Des ennemis ? Michel est résolu à en avoir le cœur net !
@@ -544,7 +558,9 @@
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Michel Thérais, grand, brun (cheveux ondulés), front haut, visage intelligent et souriant, menton un peu carré volontaire, portrait de son père Lucien.
 Martine, amie de Michel.</t>
@@ -575,7 +591,9 @@
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1963 : Bibliothèque verte, cartonné no 230, texte original. Illustré par Philippe Daure.
 1997 : Bibliothèque verte, format de poche souple , texte original. Illustré par Philippe Daure.</t>
